--- a/FM.xlsx
+++ b/FM.xlsx
@@ -421,14 +421,14 @@
         <v>13</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s" s="0">
         <v>16</v>
@@ -446,14 +446,14 @@
         <v>13</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s" s="0">
         <v>16</v>
@@ -617,14 +617,14 @@
         <v>19</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E45" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s" s="0">
         <v>16</v>
@@ -642,14 +642,14 @@
         <v>19</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s" s="0">
         <v>16</v>

--- a/FM.xlsx
+++ b/FM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -32,6 +32,9 @@
     <t>15:45</t>
   </si>
   <si>
+    <t>U3-110</t>
+  </si>
+  <si>
     <t>TYPE_COURS</t>
   </si>
   <si>
@@ -50,12 +53,18 @@
     <t>7:45</t>
   </si>
   <si>
+    <t>U4-307</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>TYPE_TP</t>
   </si>
   <si>
+    <t>U4-308</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -63,6 +72,12 @@
   </si>
   <si>
     <t>MC/FM</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
+  </si>
+  <si>
+    <t>U1-Mathis</t>
   </si>
 </sst>
 </file>
@@ -147,10 +162,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>
@@ -167,7 +184,7 @@
         <v>45923.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -186,10 +203,12 @@
       <c r="E6" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F6" s="0"/>
+      <c r="F6" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G6" s="0"/>
       <c r="H6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="0"/>
     </row>
@@ -206,7 +225,7 @@
         <v>45930.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -220,15 +239,17 @@
         <v>4</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F9" s="0"/>
+      <c r="F9" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G9" s="0"/>
       <c r="H9" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="0"/>
     </row>
@@ -242,101 +263,109 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F11" s="0"/>
+      <c r="F11" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="G11" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F12" s="0"/>
+      <c r="F12" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="G12" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F13" s="0"/>
+      <c r="F13" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="G13" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>8</v>
-      </c>
       <c r="E14" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F14" s="0"/>
+      <c r="F14" t="s" s="0">
+        <v>16</v>
+      </c>
       <c r="G14" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="0"/>
     </row>
@@ -358,101 +387,109 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F17" s="0"/>
+      <c r="F17" t="s" s="0">
+        <v>20</v>
+      </c>
       <c r="G17" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F18" s="0"/>
+      <c r="F18" t="s" s="0">
+        <v>20</v>
+      </c>
       <c r="G18" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F19" s="0"/>
+      <c r="F19" t="s" s="0">
+        <v>21</v>
+      </c>
       <c r="G19" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F20" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>21</v>
+      </c>
       <c r="G20" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" s="0"/>
     </row>

--- a/FM.xlsx
+++ b/FM.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t xml:space="preserve">Tech. de  trans. /TPC (FM)  </t>
@@ -95,7 +95,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
